--- a/model_exports/labels/2.0_False_False_3_1.xlsx
+++ b/model_exports/labels/2.0_False_False_3_1.xlsx
@@ -453,20 +453,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-1025792018793021440</t>
+          <t>t-933792655041064962</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-504042718663036928</t>
+          <t>t-1033470726521544704</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-504366068648148992</t>
+          <t>t-494463913853874176</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-504850389129129984</t>
+          <t>t-494829977268146176</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-504998704118394880</t>
+          <t>t-495010606047821824</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-561169293573115904</t>
+          <t>t-495017350790668289</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-706805466739949568</t>
+          <t>t-495805012929708033</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-1027818664391847936</t>
+          <t>t-517204809452380161</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,20 +557,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-1027909740905553920</t>
+          <t>t-561169293573115904</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-1047160746386382848</t>
+          <t>t-688456240490508289</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-501433457286053889</t>
+          <t>t-706805466739949568</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-501490224640573440</t>
+          <t>t-759240736864870400</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-638852256234913792</t>
+          <t>t-1032695855143370753</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,20 +622,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-641712529677398016</t>
+          <t>t-1033108055162941440</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-648290405872627712</t>
+          <t>t-497136108463865857</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,20 +648,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-658615758751211520</t>
+          <t>t-977115036585021440</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-658616745809330176</t>
+          <t>t-501433457286053889</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,20 +674,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-658617481574092800</t>
+          <t>t-501490224640573440</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-712108446167011328</t>
+          <t>t-575319219870437377</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,20 +700,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-767329938500308992</t>
+          <t>t-575466667171426304</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-798305189924982784</t>
+          <t>t-583290347863851008</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-826627277026791424</t>
+          <t>t-601392774370340865</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-876890893143298050</t>
+          <t>t-608798073561612289</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-876899745704415232</t>
+          <t>t-658615758751211520</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,46 +765,46 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-876909191105048577</t>
+          <t>t-658616745809330176</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-876910840670302209</t>
+          <t>t-658617481574092800</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-876983597760172032</t>
+          <t>t-693851248634810368</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-877064271393370112</t>
+          <t>t-712108446167011328</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-877647799629733893</t>
+          <t>t-719525216439910400</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,20 +830,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-877649383340298240</t>
+          <t>t-719704738913083392</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-878107705168334848</t>
+          <t>t-767329938500308992</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,33 +856,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-878263651773407233</t>
+          <t>t-771105696226025472</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-878265674975461376</t>
+          <t>t-775697386924445696</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-878542338414362624</t>
+          <t>t-876890893143298050</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-880275227367821312</t>
+          <t>t-876899745704415232</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,72 +908,72 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-894637864561987584</t>
+          <t>t-876909191105048577</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-894643508547526657</t>
+          <t>t-876910840670302209</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-894960674811596800</t>
+          <t>t-876983597760172032</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-894974152540553216</t>
+          <t>t-877064271393370112</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-894976401597763584</t>
+          <t>t-877647799629733893</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-895262760954736640</t>
+          <t>t-877649383340298240</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-909776370410168323</t>
+          <t>t-878107705168334848</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,24 +999,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-937797554313551873</t>
+          <t>t-878263651773407233</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-937878737382772737</t>
+          <t>t-878265674975461376</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-938887720075702272</t>
+          <t>t-878542338414362624</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-945777508007464961</t>
+          <t>t-880275227367821312</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,33 +1051,33 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-960921688975331329</t>
+          <t>t-889549980888969217</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-961028171192852485</t>
+          <t>t-889892042435854336</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-961254369663602688</t>
+          <t>t-890080777769283584</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,11 +1090,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1000042512319483904</t>
+          <t>t-894637864561987584</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-1000115343019343872</t>
+          <t>t-894643508547526657</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,50 +1116,50 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-1000762573766184961</t>
+          <t>t-894960674811596800</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1001659726067830785</t>
+          <t>t-894974152540553216</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1052350536111013888</t>
+          <t>t-894976401597763584</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-812540411746975744</t>
+          <t>t-895262760954736640</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-975411428663345152</t>
+          <t>t-902187406123835394</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,20 +1181,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-934407049034846208</t>
+          <t>t-902225607563644928</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1028077400779841537</t>
+          <t>t-910935192742842370</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,11 +1207,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-573406774969044992</t>
+          <t>t-911026776717103105</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1220,37 +1220,37 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-573566918876995584</t>
+          <t>t-918248158253273089</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-574621995633111040</t>
+          <t>t-956711426009202688</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-637507255093624832</t>
+          <t>t-968259732858376192</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1259,24 +1259,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-637635998185320448</t>
+          <t>t-1022084644039258112</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-638007752250396672</t>
+          <t>t-1028763648074940416</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1285,20 +1285,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-770981711182237696</t>
+          <t>t-1028815266174517249</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-852681395487035392</t>
+          <t>t-1028873828355780608</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,33 +1311,33 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-924921911510949890</t>
+          <t>t-1029034881769197569</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-924939317381758976</t>
+          <t>t-1029100538422587393</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-925210606361300992</t>
+          <t>t-832760057259384834</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,20 +1350,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-925257914817892352</t>
+          <t>t-832777578633064449</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-976076558824767489</t>
+          <t>t-694987975168495617</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,20 +1376,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1017282491193782272</t>
+          <t>t-934407049034846208</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-506695122298212352</t>
+          <t>t-1028077400779841537</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,24 +1402,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-538858836992331776</t>
+          <t>t-573406774969044992</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-753345702428827652</t>
+          <t>t-573566918876995584</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1428,33 +1428,33 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-753345808620105728</t>
+          <t>t-574621995633111040</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-753350269518409728</t>
+          <t>t-606774570255654912</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-757940960609173505</t>
+          <t>t-637507255093624832</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-619513224057061376</t>
+          <t>t-637635998185320448</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,20 +1480,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-676063553162379265</t>
+          <t>t-638007752250396672</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-773307883878363136</t>
+          <t>t-641417749898522624</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-910574474956812289</t>
+          <t>t-730338940872445952</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,20 +1519,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-923950718209359874</t>
+          <t>t-731342823132274688</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-923955178688188416</t>
+          <t>t-739238212518957060</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-923988304076464128</t>
+          <t>t-739379635675271168</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,20 +1558,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-587673014826741760</t>
+          <t>t-798458981752573952</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-587688170382163969</t>
+          <t>t-798478057195507713</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,37 +1584,37 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-1018620410819219456</t>
+          <t>t-798508699044220928</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-519554920140124160</t>
+          <t>t-798530247192965122</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-626070342885249024</t>
+          <t>t-799607144802750464</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-697497279213625344</t>
+          <t>t-928952366598037506</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-697558252012355585</t>
+          <t>t-958555465675362304</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,46 +1649,46 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-927521858815131648</t>
+          <t>t-976076558824767489</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1031705611933831168</t>
+          <t>t-992796128654524417</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-524878421172953088</t>
+          <t>t-1010157701769281538</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-676490487717625856</t>
+          <t>t-1061557072670670850</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,11 +1701,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-676517665188507650</t>
+          <t>t-1061559942140780544</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1714,20 +1714,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-921072406919352320</t>
+          <t>t-612750086443917313</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-921102349552275456</t>
+          <t>t-745595825670131714</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-921122924505026560</t>
+          <t>t-745600923448258560</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,11 +1753,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-921266455856939008</t>
+          <t>t-753345702428827652</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-921341244332113926</t>
+          <t>t-753345808620105728</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,50 +1779,50 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-921699631360176128</t>
+          <t>t-753350269518409728</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-973959709605662721</t>
+          <t>t-764602141449170944</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-973962375287246848</t>
+          <t>t-788842589554343938</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-973995114065465345</t>
+          <t>t-981152225723604993</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1831,24 +1831,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-974310620169474048</t>
+          <t>t-507504670592356352</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-843394427347320833</t>
+          <t>t-507919904779948032</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,24 +1857,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-638954151821594624</t>
+          <t>t-618057796345593856</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-639060084857929728</t>
+          <t>t-745031440031694848</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,24 +1883,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-948484381987037185</t>
+          <t>t-764358428777078784</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-948486603227451392</t>
+          <t>t-618395942002102272</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,20 +1909,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-948505461745168384</t>
+          <t>t-770209564532674560</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-948538940134477824</t>
+          <t>t-978735824383590400</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-948573984802689025</t>
+          <t>t-697866091025080320</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-956627624150880257</t>
+          <t>t-950852460532428800</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,37 +1961,37 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-986841970411823104</t>
+          <t>t-973959709605662721</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-543357722591514624</t>
+          <t>t-973962375287246848</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-928583361618169856</t>
+          <t>t-973995114065465345</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,37 +2000,37 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-1020278662699134976</t>
+          <t>t-974310620169474048</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-833840054363619329</t>
+          <t>t-568441199297761281</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-936531630868529152</t>
+          <t>t-568878359158984704</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,20 +2039,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-758769139905204224</t>
+          <t>t-783792055160082432</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-692803310668087296</t>
+          <t>t-915529742002135041</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-575206069833629696</t>
+          <t>t-915535227245776896</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,50 +2078,50 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-595961510528180224</t>
+          <t>t-919827029243187200</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-658242856386187264</t>
+          <t>t-919919408797151233</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-707957967094685696</t>
+          <t>t-919933275422027776</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-736136204106616832</t>
+          <t>t-919961378433224704</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2130,11 +2130,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-698546841881853953</t>
+          <t>t-920296060211400704</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,20 +2143,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-708373253648207873</t>
+          <t>t-953935668199215104</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-766291748704423936</t>
+          <t>t-953991296196149248</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,20 +2169,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-782264769742934016</t>
+          <t>t-955387095228567552</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-791266893470568448</t>
+          <t>t-1014948759934066688</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-791268686447378433</t>
+          <t>t-1031843897373278208</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-904717770524372993</t>
+          <t>t-1042485319055155201</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-941641219024748544</t>
+          <t>t-540871484869472256</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,11 +2234,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-883080365442838528</t>
+          <t>t-673151835868430336</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2247,37 +2247,37 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-883215183442739200</t>
+          <t>t-673156978059968512</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-748127558550560768</t>
+          <t>t-673168234577838080</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-782856010625003521</t>
+          <t>t-928583361618169856</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2286,33 +2286,33 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-799981773354463232</t>
+          <t>t-936531630868529152</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-799998393695305728</t>
+          <t>t-547131830642569216</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-800091318642950144</t>
+          <t>t-760723550810628097</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-888405582352437248</t>
+          <t>t-841795901764993024</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-1034302397882015745</t>
+          <t>t-841877177624850434</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-1034317413309919232</t>
+          <t>t-872693400436219904</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2364,7 +2364,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-1034572709651533825</t>
+          <t>t-952138958368051200</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,11 +2377,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-1034867901902319618</t>
+          <t>t-952754172880863232</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2390,11 +2390,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-1034875857125425152</t>
+          <t>t-657221044642684928</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2403,33 +2403,33 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-1034886406957662208</t>
+          <t>t-778616752993214464</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-1034922534326738944</t>
+          <t>t-992180383449014272</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-1035345459290746880</t>
+          <t>t-992184677086777345</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,20 +2442,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-1035480584934514690</t>
+          <t>t-1022207950511923200</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-1035555438882897926</t>
+          <t>t-1035595539918848000</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-1036020306895413248</t>
+          <t>t-1062308914354642944</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,11 +2481,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-1036935289485316096</t>
+          <t>t-821731492581744642</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-1037072521940623360</t>
+          <t>t-821745652803764226</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2507,37 +2507,37 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-1037363401314455553</t>
+          <t>t-902218968345272321</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-1037404586812821505</t>
+          <t>t-598299676807340033</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-1037450313920393218</t>
+          <t>t-901151504714870784</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,50 +2546,50 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-1037475943969898497</t>
+          <t>t-986530301030682624</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-1037727143038517248</t>
+          <t>t-1031211148908081152</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-1037749001658032128</t>
+          <t>t-745905684248694789</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-1039228208804233216</t>
+          <t>t-745992462448140288</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2598,33 +2598,33 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-898119475089686528</t>
+          <t>t-746083614291562497</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-898375447507030017</t>
+          <t>t-849724022598139904</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-898397795245215744</t>
+          <t>t-906974272832376832</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-924790802882146304</t>
+          <t>t-917499339278254080</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-985241133159796736</t>
+          <t>t-1001456003551031296</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,7 +2663,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-507905858265960448</t>
+          <t>t-828748393916809216</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,11 +2676,11 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-601913063172771840</t>
+          <t>t-829760036348035072</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -2689,20 +2689,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-602589391198900226</t>
+          <t>t-700818903744778240</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-652481072199036928</t>
+          <t>t-992484226795823105</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,11 +2715,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-682987194840150016</t>
+          <t>t-1043269235474984960</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -2728,85 +2728,85 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-726041703153545216</t>
+          <t>t-1006535367464509440</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-726754497737826305</t>
+          <t>t-1006670876169949190</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-746718356405882880</t>
+          <t>t-733452580194410497</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-858067034772566016</t>
+          <t>t-840282206979444737</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-858109132586483713</t>
+          <t>t-840289139450925056</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-859901667361345536</t>
+          <t>t-875514382276538369</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-900495545885757441</t>
+          <t>t-899745107900940288</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,20 +2819,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-900708018983227393</t>
+          <t>t-899747204986019844</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-956329812573945857</t>
+          <t>t-758205502480388096</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,11 +2845,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-1009549219240308737</t>
+          <t>t-758575120290091008</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2858,20 +2858,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-1036976718718881793</t>
+          <t>t-780856348493832192</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-1039643454140231684</t>
+          <t>t-864813217943441412</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,7 +2884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1039968877537456128</t>
+          <t>t-829201577370075136</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,7 +2897,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-533407970244456448</t>
+          <t>t-829349939947925504</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,7 +2910,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-727306437798576130</t>
+          <t>t-829364075721326592</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,7 +2923,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-967489391517192192</t>
+          <t>t-829412936661815299</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,20 +2936,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1029525697382047746</t>
+          <t>t-888405582352437248</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1029541696839798791</t>
+          <t>t-1034302397882015745</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,24 +2962,24 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-1029769212384948225</t>
+          <t>t-1034317413309919232</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-1035948096843395073</t>
+          <t>t-1034572709651533825</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -2988,11 +2988,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-1054153981998575616</t>
+          <t>t-1034867901902319618</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-534896855906537472</t>
+          <t>t-1034875857125425152</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-673774894543470592</t>
+          <t>t-1034886406957662208</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-673911765848035328</t>
+          <t>t-1034922534326738944</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-761355220198756352</t>
+          <t>t-1035345459290746880</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,7 +3053,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-761372714925891586</t>
+          <t>t-1035480584934514690</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3066,24 +3066,24 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-958376851084337153</t>
+          <t>t-1035555438882897926</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1042440160749780992</t>
+          <t>t-1036020306895413248</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3092,11 +3092,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-594878604397432832</t>
+          <t>t-1036935289485316096</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -3105,20 +3105,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-638674545726066688</t>
+          <t>t-1037072521940623360</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-638724428944150528</t>
+          <t>t-1037363401314455553</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,37 +3131,37 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-639699321500364800</t>
+          <t>t-1037404586812821505</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-639804238848237568</t>
+          <t>t-1037450313920393218</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-732832771106865153</t>
+          <t>t-1037475943969898497</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -3170,11 +3170,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-745683270160027648</t>
+          <t>t-1037727143038517248</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -3183,11 +3183,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-767994872578056192</t>
+          <t>t-1037749001658032128</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -3196,20 +3196,20 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-783921439044841474</t>
+          <t>t-910451192064614401</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-784017385615265792</t>
+          <t>t-530194842861580288</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,33 +3222,33 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-784336997477261312</t>
+          <t>t-536338799517634560</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-784835805999198208</t>
+          <t>t-604384366886834177</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-841637693608071170</t>
+          <t>t-604797500965265408</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,24 +3261,24 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-849475288652238849</t>
+          <t>t-605112787141033985</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-894936422980964352</t>
+          <t>t-605369768720396288</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -3287,37 +3287,37 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-953220290657492992</t>
+          <t>t-640924573647503360</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-957285309796044800</t>
+          <t>t-641489320088436736</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-957305309328039936</t>
+          <t>t-715206020902084609</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-957621820626276353</t>
+          <t>t-715208550243557376</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-958690487875055616</t>
+          <t>t-715210823002562560</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -3352,20 +3352,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-972048308909826048</t>
+          <t>t-715215011178803200</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-986933673697120257</t>
+          <t>t-737800453916897280</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-1052331593933688832</t>
+          <t>t-757613409047343105</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,20 +3391,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-1052814538419003392</t>
+          <t>t-780146894357929984</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-1052930779947393024</t>
+          <t>t-820042974197334018</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-1052972300667146241</t>
+          <t>t-821459572263100416</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,20 +3430,20 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-1053005694822207488</t>
+          <t>t-851625591652720640</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-1053014697077817346</t>
+          <t>t-852529810760908801</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,11 +3456,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-1053091674438725632</t>
+          <t>t-852624282018615296</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3469,33 +3469,33 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-1053211878921568256</t>
+          <t>t-925358435398488064</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-1053220103070932992</t>
+          <t>t-1009549219240308737</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-1053451825607774209</t>
+          <t>t-620793830413959168</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,33 +3508,33 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-1053915265375834112</t>
+          <t>t-628272138890252288</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-903255663417204736</t>
+          <t>t-634745305263640576</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-1045126070540865541</t>
+          <t>t-534896855906537472</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,20 +3547,20 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-646786233809539072</t>
+          <t>t-796087988140834817</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-726931802141659137</t>
+          <t>t-836289804664979457</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,37 +3573,37 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-893162180492787716</t>
+          <t>t-569509595133173761</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-570559495811813376</t>
+          <t>t-581999689727389696</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-570650767369109504</t>
+          <t>t-647384012202356736</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3612,20 +3612,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-570656230466838528</t>
+          <t>t-648159002224914436</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-570659758706962432</t>
+          <t>t-648232794137718784</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,11 +3638,11 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-570724512095969280</t>
+          <t>t-648426685910618112</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3651,20 +3651,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-570966152807100416</t>
+          <t>t-707575261483687937</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-570990183648243712</t>
+          <t>t-1049984041888505856</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,20 +3677,20 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-571060362520502272</t>
+          <t>t-1051063984038776837</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-571231922355097600</t>
+          <t>t-538818433920827392</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,11 +3703,11 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-571320451407974400</t>
+          <t>t-754470366408507392</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3716,7 +3716,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-571330597400018944</t>
+          <t>t-910953097316376576</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,7 +3729,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-571345826099941376</t>
+          <t>t-910955895714123776</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,24 +3742,24 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-571920017329156096</t>
+          <t>t-696805827110428676</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-572029056453115906</t>
+          <t>t-817123537488084993</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3768,11 +3768,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-573087826360836097</t>
+          <t>t-561705902466957314</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3781,7 +3781,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-655077150693990401</t>
+          <t>t-666910428551897088</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,20 +3794,20 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-666910428551897088</t>
+          <t>t-592720340289224705</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-821117207245713408</t>
+          <t>t-697026011876233216</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,33 +3820,33 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-901071860456185856</t>
+          <t>t-722677158112587776</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-946151169231114241</t>
+          <t>t-791567733695606784</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-983975898042064896</t>
+          <t>t-565107354606518272</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,20 +3859,20 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-984343410269151233</t>
+          <t>t-632590097284734976</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-570999709160116224</t>
+          <t>t-736272987683426305</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,20 +3885,20 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-571255966727053312</t>
+          <t>t-778893752471543808</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-698124151282864129</t>
+          <t>t-778933660334559232</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-698267386730975232</t>
+          <t>t-788874378666737664</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-698288943490535428</t>
+          <t>t-862378347007025154</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,33 +3937,33 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-698457478183301120</t>
+          <t>t-880769643060842496</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-698469723680464897</t>
+          <t>t-998345989382705152</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-698599200850898944</t>
+          <t>t-615316042294890496</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,11 +3976,11 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-698812315353903104</t>
+          <t>t-783130241195585536</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3989,11 +3989,11 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-632590097284734976</t>
+          <t>t-783135151601704960</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -4002,7 +4002,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-894726430050754561</t>
+          <t>t-892449776129777665</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,7 +4015,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-899250634855251968</t>
+          <t>t-892462041277091840</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,33 +4028,33 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-957965473316069376</t>
+          <t>t-892471980875808773</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-968874912806068224</t>
+          <t>t-892472490483646466</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-1049061003617607680</t>
+          <t>t-892606487482089472</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,7 +4067,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-1049351090909667329</t>
+          <t>t-892633367342088192</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,37 +4080,37 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-1050209065153036288</t>
+          <t>t-892700840817045504</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-567287806645395457</t>
+          <t>t-892731725897281538</t>
         </is>
       </c>
       <c r="B282" t="n">
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-817491496857255936</t>
+          <t>t-901999787855228933</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -4119,33 +4119,33 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-576618970368876544</t>
+          <t>t-902015237951549441</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-578003881596215296</t>
+          <t>t-995839519449640960</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-741029103147442176</t>
+          <t>t-1012441483654332417</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,7 +4158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-887375379186548736</t>
+          <t>t-572808490965733378</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,24 +4171,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-995839519449640960</t>
+          <t>t-686862688752807937</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-839501967894405121</t>
+          <t>t-763085869045653505</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -4197,24 +4197,24 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-839604530048299008</t>
+          <t>t-763088808799797248</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-887004122628710405</t>
+          <t>t-839501967894405121</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -4223,11 +4223,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-887017424306008065</t>
+          <t>t-839604530048299008</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-960911174505238534</t>
+          <t>t-884636889948471296</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,7 +4249,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-1057298961642471425</t>
+          <t>t-1033036271491461120</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,7 +4262,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-575443997050691585</t>
+          <t>t-1052977443760427009</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,20 +4275,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-874804635327905792</t>
+          <t>t-609166003570802689</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-821077876112035840</t>
+          <t>t-873677712304463872</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,11 +4301,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-821090113476325376</t>
+          <t>t-601584910428729344</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-935929183758356480</t>
+          <t>t-640921153591050240</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,11 +4327,11 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-601584910428729344</t>
+          <t>t-774740590848188416</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -4340,7 +4340,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-765721842803802112</t>
+          <t>t-880307230364508160</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,46 +4353,46 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-766980130283610112</t>
+          <t>t-1049725086469685248</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-786005533685710849</t>
+          <t>t-629437596280750080</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-848618580681912320</t>
+          <t>t-631280418583658496</t>
         </is>
       </c>
       <c r="B304" t="n">
         <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-848657153367953411</t>
+          <t>t-639100384343101440</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,85 +4405,85 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-848877245439594496</t>
+          <t>t-634366408906768384</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-607899372177747968</t>
+          <t>t-636961984953630720</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-1049990926406492160</t>
+          <t>t-719978473687633922</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-612283618052825088</t>
+          <t>t-983744396364480512</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-914224756555055104</t>
+          <t>t-653702331221999616</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-634366408906768384</t>
+          <t>t-655890642334257152</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-735633517237919744</t>
+          <t>t-667433104118833152</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-771587937746071552</t>
+          <t>t-886426015374946304</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,33 +4509,33 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-1039755728448352257</t>
+          <t>t-919294420465229824</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-1039888860501688320</t>
+          <t>t-1029396532313968640</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-643571264011898881</t>
+          <t>t-1029397392343425024</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,7 +4548,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-646070620120215552</t>
+          <t>t-1029408763877498885</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,11 +4561,11 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-648598850530226176</t>
+          <t>t-1029408838305361921</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -4574,33 +4574,33 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-756001538783326208</t>
+          <t>t-1029566349918527488</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-756128433025843200</t>
+          <t>t-880159202567753728</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-756153001300156416</t>
+          <t>t-971386931857772544</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,7 +4613,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-756172674531942400</t>
+          <t>t-783618446827356161</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,7 +4626,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-765678719205724160</t>
+          <t>t-784456852864065536</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,7 +4639,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-895489338364055553</t>
+          <t>t-996488939933401088</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,7 +4652,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-655890642334257152</t>
+          <t>t-796435007673946112</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,24 +4665,24 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-678946767459618818</t>
+          <t>t-796529318373584896</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-679082878148341760</t>
+          <t>t-796701113995104256</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4691,20 +4691,20 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-1027575306226475008</t>
+          <t>t-796745584795389952</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-803234433000148994</t>
+          <t>t-805294233020231681</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,7 +4717,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-803236909183107073</t>
+          <t>t-805399384150147076</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,20 +4730,20 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-803260822801649664</t>
+          <t>t-834760589746569216</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-803260889940062209</t>
+          <t>t-854163806288834560</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-803271446357282816</t>
+          <t>t-860879398387556352</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-736702899519004674</t>
+          <t>t-951198867181236228</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-922944953696899072</t>
+          <t>t-877327075954245633</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-922950403255341056</t>
+          <t>t-966639239407525888</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,11 +4808,11 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-922959565792083968</t>
+          <t>t-894457279076020224</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4821,7 +4821,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-803284826191171584</t>
+          <t>t-913513656511614977</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,7 +4834,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-1001848606427697153</t>
+          <t>t-1034792477096652801</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,59 +4847,59 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-692348550416633857</t>
+          <t>t-499943241962487808</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-981289690258071552</t>
+          <t>t-542806015075713026</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-1054497487657021440</t>
+          <t>t-630691491766251520</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-853267425386803200</t>
+          <t>t-881960500829016064</t>
         </is>
       </c>
       <c r="B343" t="n">
         <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-829844333205413888</t>
+          <t>t-538351189679939584</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,11 +4912,11 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-749466819581411328</t>
+          <t>t-650288114116730880</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4925,24 +4925,24 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-1029396532313968640</t>
+          <t>t-652079150321270784</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-1029397392343425024</t>
+          <t>t-652171720393101312</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4951,24 +4951,24 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-1029408763877498885</t>
+          <t>t-738823278840664064</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-1029408838305361921</t>
+          <t>t-773146400129441792</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-1029566349918527488</t>
+          <t>t-776037646023925760</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,24 +4990,24 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-913112779548176384</t>
+          <t>t-786070938412515329</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-895778141523894272</t>
+          <t>t-786266752061669376</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -5016,50 +5016,50 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-904025443510214656</t>
+          <t>t-786287404416135168</t>
         </is>
       </c>
       <c r="B353" t="n">
         <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-904025763938217984</t>
+          <t>t-786588204170346496</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-904026823356506112</t>
+          <t>t-786674211528015873</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-864828748495020032</t>
+          <t>t-819436418263031808</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -5068,11 +5068,11 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-783618446827356161</t>
+          <t>t-950172807996026880</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
         <v>1</v>
@@ -5081,11 +5081,11 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-784456852864065536</t>
+          <t>t-950367246299394048</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,63 +5094,63 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-996488939933401088</t>
+          <t>t-517992573227778048</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-803919035318628352</t>
+          <t>t-591229240311439360</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-804312701002457088</t>
+          <t>t-750337554457694208</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-850470638624133120</t>
+          <t>t-674956056209063937</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-885945201105219584</t>
+          <t>t-782797044729741312</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -5159,46 +5159,46 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-885947457330438145</t>
+          <t>t-1001002093895921665</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-939854628749004801</t>
+          <t>t-699600707318587392</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-848529770258288642</t>
+          <t>t-722253771867181056</t>
         </is>
       </c>
       <c r="B366" t="n">
         <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-882704580865404928</t>
+          <t>t-722818069320470529</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,33 +5211,33 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-1026649986782650369</t>
+          <t>t-722837910135832577</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-912214251749744641</t>
+          <t>t-722884869374619648</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-913513656511614977</t>
+          <t>t-723517423786299392</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,7 +5250,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-955145334002417666</t>
+          <t>t-901639048464388096</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,24 +5263,24 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-1034792477096652801</t>
+          <t>t-901662243594612737</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-621860106481762304</t>
+          <t>t-901835893232857088</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -5289,11 +5289,11 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-850388688303529986</t>
+          <t>t-901991202857377792</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -5302,11 +5302,11 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-850540226590253057</t>
+          <t>t-902096694422228992</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -5315,11 +5315,11 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-881960500829016064</t>
+          <t>t-902156696407216129</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -5328,20 +5328,20 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-952288702339997696</t>
+          <t>t-902188288789925889</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-952549733930885120</t>
+          <t>t-902258946840313856</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,46 +5354,46 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-952956945098473472</t>
+          <t>t-902339386959958016</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-519370037812277248</t>
+          <t>t-902474134315302912</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-517603456123944960</t>
+          <t>t-884450764084662272</t>
         </is>
       </c>
       <c r="B381" t="n">
         <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-517609652138569728</t>
+          <t>t-884455668140445696</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,7 +5406,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-518412519053221888</t>
+          <t>t-884457897043927040</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,20 +5419,20 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-519245102263574528</t>
+          <t>t-884462539458977792</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-519387709392314368</t>
+          <t>t-951835055445413893</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,7 +5445,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-519393743326441472</t>
+          <t>t-957342329127473158</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,11 +5458,11 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-519395800687083520</t>
+          <t>t-788324770765008896</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387" t="n">
         <v>1</v>
@@ -5471,7 +5471,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-519401695307390976</t>
+          <t>t-865447859285405696</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-635439309563260929</t>
+          <t>t-865573879527428096</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,7 +5497,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-635461097114484736</t>
+          <t>t-538674754086244353</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,20 +5510,20 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-635467880918818816</t>
+          <t>t-541965663666184192</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-635469518022803456</t>
+          <t>t-538736663154135040</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,11 +5536,11 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-635491308438728704</t>
+          <t>t-576412478135005185</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -5549,24 +5549,24 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-635718998781390848</t>
+          <t>t-577791187240787968</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-636228687013265410</t>
+          <t>t-578574154607280128</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-804010972331524096</t>
+          <t>t-634983488203177984</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,11 +5588,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-984081755006259201</t>
+          <t>t-653264904581984256</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -5601,7 +5601,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-517992573227778048</t>
+          <t>t-653992755027386368</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,24 +5614,24 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-869830075268685825</t>
+          <t>t-734290700469166080</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-635444360306368512</t>
+          <t>t-770572723777105920</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -5640,50 +5640,50 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-901639048464388096</t>
+          <t>t-787588682731626496</t>
         </is>
       </c>
       <c r="B401" t="n">
         <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-901662243594612737</t>
+          <t>t-806453539409162240</t>
         </is>
       </c>
       <c r="B402" t="n">
         <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-901835893232857088</t>
+          <t>t-806476961451216896</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-901991202857377792</t>
+          <t>t-836980367781396480</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C404" t="n">
         <v>1</v>
@@ -5692,7 +5692,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-902096694422228992</t>
+          <t>t-884135398854635520</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,7 +5705,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-902156696407216129</t>
+          <t>t-884163532958441472</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,7 +5718,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-902188288789925889</t>
+          <t>t-884173621224239104</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,20 +5731,20 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-902258946840313856</t>
+          <t>t-884176826679136256</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-902339386959958016</t>
+          <t>t-884179431887167489</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,24 +5757,24 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-902474134315302912</t>
+          <t>t-884282035384320001</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-955489372547305472</t>
+          <t>t-884290062598451200</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -5783,7 +5783,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-955838886860787712</t>
+          <t>t-884310032518664194</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,20 +5796,20 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-956166896012939265</t>
+          <t>t-884325033430200320</t>
         </is>
       </c>
       <c r="B413" t="n">
         <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-595202959648096256</t>
+          <t>t-894594064582094852</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,11 +5822,11 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-819866466162012160</t>
+          <t>t-925333063336321024</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -5835,24 +5835,24 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-955738647663431681</t>
+          <t>t-977899948724379649</t>
         </is>
       </c>
       <c r="B416" t="n">
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-955740876436844544</t>
+          <t>t-981811338774183936</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -5861,46 +5861,46 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-956201264915910656</t>
+          <t>t-982165823350423552</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-538736663154135040</t>
+          <t>t-1038002421543391232</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-538959622858883072</t>
+          <t>t-1060529365962948608</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-540907891566575616</t>
+          <t>t-580823195311276032</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,7 +5913,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-541174080833978368</t>
+          <t>t-846728089912643588</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,24 +5926,24 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-544508576757477376</t>
+          <t>t-699529516008476673</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-544546124984762370</t>
+          <t>t-888058781363580930</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5952,50 +5952,50 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-544574124832468992</t>
+          <t>t-958216984176427008</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-544578399596187648</t>
+          <t>t-1018785093295464448</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-544615900180393984</t>
+          <t>t-837620098416459776</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-544793457190268928</t>
+          <t>t-1034815239219539970</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
         <v>1</v>
@@ -6004,11 +6004,11 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-544806009018265601</t>
+          <t>t-697699936171909120</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -6017,24 +6017,24 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-545012520793436160</t>
+          <t>t-697706009293410304</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-545215683404267523</t>
+          <t>t-698055021934571520</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -6043,37 +6043,37 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-603463396365836289</t>
+          <t>t-698056879210102784</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-629222720161640449</t>
+          <t>t-698065167305805824</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-677902230650003457</t>
+          <t>t-698086763601006593</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -6082,11 +6082,11 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-694507587149111296</t>
+          <t>t-698453860554244096</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -6095,33 +6095,33 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-702966418057330688</t>
+          <t>t-1000392026742034432</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-703646494901927936</t>
+          <t>t-1000411846237675521</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-748093412272910336</t>
+          <t>t-1000414273863069696</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,11 +6134,11 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-783909177920020480</t>
+          <t>t-1000416714763505664</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -6147,33 +6147,33 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-784305124269182976</t>
+          <t>t-731437259828924417</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-965524750264135680</t>
+          <t>t-778479315071664128</t>
         </is>
       </c>
       <c r="B441" t="n">
         <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-966320851678318593</t>
+          <t>t-580822339648122880</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,33 +6186,33 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-967380419707535360</t>
+          <t>t-581167008596758528</t>
         </is>
       </c>
       <c r="B443" t="n">
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-981811338774183936</t>
+          <t>t-1027292918111825921</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-982165823350423552</t>
+          <t>t-742289179535659008</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,46 +6225,46 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-987423120817643520</t>
+          <t>t-743359058392940544</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-1001548678748954624</t>
+          <t>t-586494775089442816</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-1001557802375110657</t>
+          <t>t-737201412497649664</t>
         </is>
       </c>
       <c r="B448" t="n">
         <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1008363588552151040</t>
+          <t>t-737877218718797825</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,46 +6277,46 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-580823195311276032</t>
+          <t>t-738015379373625344</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-549859905231142914</t>
+          <t>t-738097397058932736</t>
         </is>
       </c>
       <c r="B451" t="n">
         <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-653928809671081984</t>
+          <t>t-738253541266075652</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-816609916018454528</t>
+          <t>t-738419452778274816</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,11 +6329,11 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-1056877276875374593</t>
+          <t>t-738714074352123904</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -6342,7 +6342,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-552766016325840896</t>
+          <t>t-737572670372339712</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -6355,46 +6355,46 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-557320938375905282</t>
+          <t>t-594549643134009344</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-560682074529484800</t>
+          <t>t-743905323543629825</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-623733200322449409</t>
+          <t>t-948800001890713600</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-823181666160144384</t>
+          <t>t-1050165943790460929</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-1018785093295464448</t>
+          <t>t-601387987851677696</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,11 +6420,11 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-801715561692626944</t>
+          <t>t-601436583682703361</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-801720307002339328</t>
+          <t>t-605693478799065088</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,46 +6446,46 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-1050114319227195392</t>
+          <t>t-605727874348384256</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-567369806647951362</t>
+          <t>t-605802486604046337</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-567639888489500672</t>
+          <t>t-605842449722777601</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-1000392026742034432</t>
+          <t>t-605899935117017088</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,7 +6498,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-1000411846237675521</t>
+          <t>t-612221773757681664</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,11 +6511,11 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-1000414273863069696</t>
+          <t>t-769927127475097602</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-1000416714763505664</t>
+          <t>t-631869539597336576</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,20 +6537,20 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-999158779580121089</t>
+          <t>t-632875946828255232</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-888068991020929025</t>
+          <t>t-900842879182131201</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,11 +6563,11 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-580368693688999936</t>
+          <t>t-1038016191711928321</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -6576,7 +6576,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-869260706524397568</t>
+          <t>t-1038359113791680512</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,11 +6589,11 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-580822339648122880</t>
+          <t>t-656425382145597440</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
         <v>0</v>
@@ -6602,24 +6602,24 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-581167008596758528</t>
+          <t>t-801672831046221825</t>
         </is>
       </c>
       <c r="B475" t="n">
         <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-764514429736132609</t>
+          <t>t-801706221803806720</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -6628,33 +6628,33 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-764618483195838464</t>
+          <t>t-880072530329038848</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-583486848426713088</t>
+          <t>t-1056610127975997440</t>
         </is>
       </c>
       <c r="B478" t="n">
         <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-586494775089442816</t>
+          <t>t-652148120952803329</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,24 +6667,24 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-957917970390450177</t>
+          <t>t-664402656019005440</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-590431507967299584</t>
+          <t>t-656869699980955649</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -6693,7 +6693,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-740222976763830272</t>
+          <t>t-657672314465726464</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,11 +6706,11 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-740225059193819140</t>
+          <t>t-663799425475731457</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -6719,33 +6719,33 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-740231562940297216</t>
+          <t>t-723039191961985026</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-740233568627068929</t>
+          <t>t-908615579501780992</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-740511241383387136</t>
+          <t>t-669879511748579329</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,7 +6758,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-741661270017970176</t>
+          <t>t-670195512713330689</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,24 +6771,24 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-593397061376147456</t>
+          <t>t-784413747376893952</t>
         </is>
       </c>
       <c r="B488" t="n">
         <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-743905323543629825</t>
+          <t>t-808055620339384324</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -6797,20 +6797,20 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-955539710214057984</t>
+          <t>t-829095437466533888</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-955816204769390593</t>
+          <t>t-950677684811640833</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,7 +6823,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-605693478799065088</t>
+          <t>t-835605594534981633</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,7 +6836,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-605727874348384256</t>
+          <t>t-835708598772727808</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,24 +6849,24 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-605802486604046337</t>
+          <t>t-952055483354972160</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-605842449722777601</t>
+          <t>t-715202576552169472</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
         <v>0</v>
@@ -6875,24 +6875,24 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-605899935117017088</t>
+          <t>t-897572628667478020</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-608880570362437632</t>
+          <t>t-720951969716809728</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -6901,24 +6901,24 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-760350969154723840</t>
+          <t>t-852243165302198273</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-907976446286680066</t>
+          <t>t-736607968997838848</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -6927,11 +6927,11 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-908018109373730816</t>
+          <t>t-979633616404844544</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
         <v>0</v>
@@ -6940,20 +6940,20 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-623896530324467712</t>
+          <t>t-741709377703411712</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-641169109116293120</t>
+          <t>t-737558350011867138</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,7 +6966,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-1038016191711928321</t>
+          <t>t-738417908926320643</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,20 +6979,20 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-1038359113791680512</t>
+          <t>t-738664460173381632</t>
         </is>
       </c>
       <c r="B504" t="n">
         <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-639695836943884288</t>
+          <t>t-957930793187397632</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-1018847155090542593</t>
+          <t>t-737663862317682689</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,85 +7018,85 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-925429606693457921</t>
+          <t>t-737736248970911744</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-1056610127975997440</t>
+          <t>t-737669645872795648</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-656869699980955649</t>
+          <t>t-737703959993913344</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-657672314465726464</t>
+          <t>t-737753796202385408</t>
         </is>
       </c>
       <c r="B510" t="n">
         <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-908615579501780992</t>
+          <t>t-737755886211477504</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-784413747376893952</t>
+          <t>t-737784335567364096</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-671784280259866624</t>
+          <t>t-737884729626791936</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,24 +7109,24 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-681422251338674177</t>
+          <t>t-737979350088323072</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-701060752074010624</t>
+          <t>t-955134939699310592</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
         <v>0</v>
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-829095437466533888</t>
+          <t>t-737976116753883136</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,59 +7148,59 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-781871738888065024</t>
+          <t>t-738434736910176256</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-852243165302198273</t>
+          <t>t-933719239126642689</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-734423204488445952</t>
+          <t>t-738250548865032192</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-736808558038265858</t>
+          <t>t-738751926372827136</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-737558350011867138</t>
+          <t>t-739230360207261700</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,7 +7213,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-738417908926320643</t>
+          <t>t-740264154712449024</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,7 +7226,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-738664460173381632</t>
+          <t>t-906057103172923392</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,11 +7239,11 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-751418791951790080</t>
+          <t>t-1002274254954647552</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
         <v>1</v>
@@ -7252,7 +7252,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-737563920496349185</t>
+          <t>t-1002283218085863430</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,20 +7265,20 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-890865444307042304</t>
+          <t>t-1005463006455754752</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-933719239126642689</t>
+          <t>t-743445326611251200</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-957730126799802368</t>
+          <t>t-760176866099601408</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,7 +7304,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-739230360207261700</t>
+          <t>t-765679686244454400</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,7 +7317,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-740264154712449024</t>
+          <t>t-767290506456039424</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,11 +7330,11 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-1002274254954647552</t>
+          <t>t-793504441022504960</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
         <v>1</v>
@@ -7343,7 +7343,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-1002283218085863430</t>
+          <t>t-801835115894755328</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,63 +7356,63 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-740666936263118848</t>
+          <t>t-803544744215384064</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-753159226390962176</t>
+          <t>t-906552804285861889</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-765679686244454400</t>
+          <t>t-827575866729361408</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-806105457077186561</t>
+          <t>t-960991499604328448</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-806175022247280641</t>
+          <t>t-834314501134614528</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
         <v>0</v>
@@ -7421,11 +7421,11 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-806834354802438144</t>
+          <t>t-834984907881525249</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
         <v>1</v>
@@ -7434,11 +7434,11 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-819911710349922305</t>
+          <t>t-862319925528023040</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
         <v>0</v>
@@ -7447,24 +7447,24 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-960991499604328448</t>
+          <t>t-862320640791121920</t>
         </is>
       </c>
       <c r="B540" t="n">
         <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-952289558770651136</t>
+          <t>t-852631745438601216</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
         <v>0</v>
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-952536637413584897</t>
+          <t>t-854059785049788419</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,7 +7486,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-952649290148704259</t>
+          <t>t-859444598309097473</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,7 +7499,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-952989314534617088</t>
+          <t>t-859536182866317312</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,7 +7512,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-852631745438601216</t>
+          <t>t-1019231079817973760</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,11 +7525,11 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-852898298344099840</t>
+          <t>t-875285232924188672</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
         <v>1</v>
@@ -7538,20 +7538,20 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-854059785049788419</t>
+          <t>t-887201249715789824</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-859444598309097473</t>
+          <t>t-892499939137335296</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,33 +7564,33 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-859536182866317312</t>
+          <t>t-894025914476105728</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-991783836206936065</t>
+          <t>t-940225923332403204</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-886643817893560320</t>
+          <t>t-940273268677849088</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,7 +7603,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-887813365304705024</t>
+          <t>t-948508791448002560</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,7 +7616,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-1003312973887270917</t>
+          <t>t-1003659615115141120</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7629,7 +7629,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-1003367321245798400</t>
+          <t>t-1006233702052057088</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,7 +7642,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-1003369104735113216</t>
+          <t>t-1017566472292495360</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,7 +7655,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-1003387066909167617</t>
+          <t>t-1043053295298899968</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-1003393307597312000</t>
+          <t>t-1043072721595375616</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,7 +7681,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-1003471542783823872</t>
+          <t>t-1043145723687129090</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,20 +7694,20 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-1003531171559628800</t>
+          <t>t-1043100641466490881</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-1003538396285947905</t>
+          <t>t-1043534562775781377</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,37 +7720,37 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-1003544511115603973</t>
+          <t>t-495525926722367488</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-1003657726029975553</t>
+          <t>t-565143761131671552</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-1003966949058056192</t>
+          <t>t-590545916886659072</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
         <v>0</v>
@@ -7759,63 +7759,63 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-955559981331419136</t>
+          <t>t-673149443068309504</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-1003659615115141120</t>
+          <t>t-845604671851057152</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-1003736255149027328</t>
+          <t>t-891629267066290176</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-1030184521969410055</t>
+          <t>t-512537797442273280</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-1043053295298899968</t>
+          <t>t-529938272265703424</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C568" t="n">
         <v>1</v>
@@ -7824,50 +7824,50 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-1043072721595375616</t>
+          <t>t-556228745443282944</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-1043145723687129090</t>
+          <t>t-575891615593721856</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-1043100641466490881</t>
+          <t>t-629559315221737472</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-1043534562775781377</t>
+          <t>t-643644357350948864</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C572" t="n">
         <v>1</v>
@@ -7876,20 +7876,20 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-495525926722367488</t>
+          <t>t-664426560234110976</t>
         </is>
       </c>
       <c r="B573" t="n">
         <v>0</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-565143761131671552</t>
+          <t>t-686071224749821953</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,11 +7902,11 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-845604671851057152</t>
+          <t>t-755613145079484416</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C575" t="n">
         <v>1</v>
@@ -7915,11 +7915,11 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-498746062224375809</t>
+          <t>t-788186519307563010</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
         <v>1</v>
@@ -7928,7 +7928,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-499104320717996032</t>
+          <t>t-835120033412038656</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,11 +7941,11 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-532541340023017473</t>
+          <t>t-852554541803417600</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -7954,11 +7954,11 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-549142719973445632</t>
+          <t>t-875288006172831744</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C579" t="n">
         <v>1</v>
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-549750044099088384</t>
+          <t>t-910155731134853120</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,46 +7980,46 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-549858427787153410</t>
+          <t>t-910165111620329472</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-549861279825817601</t>
+          <t>t-912643743894949888</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-550997963590610944</t>
+          <t>t-914672240901287936</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-551059868657152002</t>
+          <t>t-927545172220694528</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,11 +8032,11 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-551164779646038017</t>
+          <t>t-927729703523270657</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
         <v>0</v>
@@ -8045,7 +8045,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-552328482282553344</t>
+          <t>t-927758071429939200</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,76 +8058,76 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-552381413899898881</t>
+          <t>t-927766985911312384</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-552754433155928064</t>
+          <t>t-928074662826745856</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-552860760968138752</t>
+          <t>t-928076971581378560</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-552960294360977408</t>
+          <t>t-928123673919348741</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-553046169975148544</t>
+          <t>t-928519035205095424</t>
         </is>
       </c>
       <c r="B591" t="n">
         <v>0</v>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-553111267569713154</t>
+          <t>t-928568681545728000</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,24 +8136,24 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-553535305601392640</t>
+          <t>t-928619706227023872</t>
         </is>
       </c>
       <c r="B593" t="n">
         <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-572446866039697408</t>
+          <t>t-928900021390577664</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C594" t="n">
         <v>1</v>
@@ -8162,11 +8162,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-616630261191716864</t>
+          <t>t-928909590627942400</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
         <v>0</v>
@@ -8175,7 +8175,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-790900222368976896</t>
+          <t>t-928993443942105088</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-790909371781746688</t>
+          <t>t-930305225726054400</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,11 +8201,11 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-791594802844434434</t>
+          <t>t-944057571853287424</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-806863559212679168</t>
+          <t>t-1041319973430255616</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,24 +8227,24 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-815395045314560000</t>
+          <t>t-675258412049956865</t>
         </is>
       </c>
       <c r="B600" t="n">
         <v>1</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-815855888129028096</t>
+          <t>t-762938358486052865</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C601" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-815865821570289668</t>
+          <t>t-777605888655761409</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-815882427159678976</t>
+          <t>t-778041943855026178</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,7 +8279,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-815960345336545280</t>
+          <t>t-778431677144018944</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,20 +8292,20 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-816280699388841984</t>
+          <t>t-782517721938300928</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-837558511772938241</t>
+          <t>t-806390063244410880</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,7 +8318,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-837704571640246272</t>
+          <t>t-806499176066453505</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,20 +8331,20 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-879622376966635521</t>
+          <t>t-827493643661381632</t>
         </is>
       </c>
       <c r="B608" t="n">
         <v>1</v>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-879625739317854209</t>
+          <t>t-914680114595602432</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,11 +8357,11 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-879987948296568834</t>
+          <t>t-948796201708675072</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
         <v>1</v>
@@ -8370,33 +8370,33 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-918517038053814277</t>
+          <t>t-948886764244033537</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-935721877053505536</t>
+          <t>t-536372518622212096</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-499804424827457538</t>
+          <t>t-536830333530804225</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-499826521846972416</t>
+          <t>t-536843974086897664</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,46 +8422,46 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-772650812623290373</t>
+          <t>t-545488523856338944</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-772781827224285184</t>
+          <t>t-587184590302814208</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-773074057805737984</t>
+          <t>t-587194258815221760</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-869476060991152129</t>
+          <t>t-587194893052747777</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-914680114595602432</t>
+          <t>t-727080149770866688</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-976046458834116609</t>
+          <t>t-749065341586726912</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-503088287381082112</t>
+          <t>t-764804167068024832</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,11 +8513,11 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-574404715376603136</t>
+          <t>t-796319752176009216</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C622" t="n">
         <v>1</v>
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-585340196557692928</t>
+          <t>t-796346157156864001</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-605261202822807552</t>
+          <t>t-796369433241403393</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-605672293654654976</t>
+          <t>t-796693709639168001</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,11 +8565,11 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-645905787584274433</t>
+          <t>t-797722245741223936</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
         <v>1</v>
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-645928760433246209</t>
+          <t>t-797729987348418561</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,20 +8591,20 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-645952188204761088</t>
+          <t>t-797771440128860162</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-646249606892797957</t>
+          <t>t-797771478930366464</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-669092226840981504</t>
+          <t>t-797792110535528448</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,11 +8630,11 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-674612681832140800</t>
+          <t>t-798105876364029953</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -8643,33 +8643,33 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-683221184775733248</t>
+          <t>t-836823983353909248</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-708275780988473345</t>
+          <t>t-928491239808233473</t>
         </is>
       </c>
       <c r="B633" t="n">
         <v>1</v>
       </c>
       <c r="C633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-709001129091174403</t>
+          <t>t-928882270554877953</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-709281433978687488</t>
+          <t>t-928900503953588224</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-713640428369612800</t>
+          <t>t-928967839649804289</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-713641932795215874</t>
+          <t>t-929323628226686976</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,24 +8721,24 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-713645035460251648</t>
+          <t>t-1024894521568448513</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-713649642907406336</t>
+          <t>t-529909835525939202</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
         <v>1</v>
@@ -8747,33 +8747,33 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-713682083688767488</t>
+          <t>t-830849870890102784</t>
         </is>
       </c>
       <c r="B640" t="n">
         <v>1</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-714598783724597248</t>
+          <t>t-830867426568867840</t>
         </is>
       </c>
       <c r="B641" t="n">
         <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-714729459107119104</t>
+          <t>t-831995329318772736</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-715080311059517440</t>
+          <t>t-546954418067738625</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,24 +8799,24 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-756020759726727169</t>
+          <t>t-547052080943214593</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-764804167068024832</t>
+          <t>t-547052404026249217</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C645" t="n">
         <v>1</v>
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-794478910901624834</t>
+          <t>t-547288951820521472</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-794502218061750272</t>
+          <t>t-547333815882887168</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-828522614863785984</t>
+          <t>t-547368132457689088</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-834984646416842753</t>
+          <t>t-547431547935412224</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-834986851718946816</t>
+          <t>t-547610562692009985</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,20 +8890,20 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-835051963096121344</t>
+          <t>t-547694551637700608</t>
         </is>
       </c>
       <c r="B651" t="n">
         <v>1</v>
       </c>
       <c r="C651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-918078962173075457</t>
+          <t>t-621352736672473089</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-918257100547014658</t>
+          <t>t-621526313216536576</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,24 +8929,24 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-508042249457139712</t>
+          <t>t-621967424384925696</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-783478326421704704</t>
+          <t>t-664725934935707650</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C655" t="n">
         <v>0</v>
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-831995329318772736</t>
+          <t>t-678547534269177856</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-839656521227091969</t>
+          <t>t-788398448508739585</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-961643380684959749</t>
+          <t>t-788457694453637120</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,33 +8994,33 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-689784474884648961</t>
+          <t>t-817345259164221440</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-936830929384828928</t>
+          <t>t-853130130432176128</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-936988511051292672</t>
+          <t>t-989542585978052610</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-1028122158990381056</t>
+          <t>t-1000752833484881921</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,33 +9046,33 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-527311291191263232</t>
+          <t>t-1001352081465212928</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-799444908029284352</t>
+          <t>t-902843730587115520</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-799480577057583104</t>
+          <t>t-525880451999617025</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,11 +9085,11 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-829520315575177217</t>
+          <t>t-740483903366926337</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
         <v>1</v>
@@ -9098,11 +9098,11 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-830684745323327488</t>
+          <t>t-777029515289563136</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C667" t="n">
         <v>1</v>
@@ -9111,11 +9111,11 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-836878014587744257</t>
+          <t>t-777052253362335745</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C668" t="n">
         <v>1</v>
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-983954928610697216</t>
+          <t>t-545394272619331584</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-558428892898131968</t>
+          <t>t-564676313139531776</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-558596887519850496</t>
+          <t>t-564736068306878464</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,11 +9163,11 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-564676313139531776</t>
+          <t>t-689731867570900992</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
         <v>1</v>
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-564736068306878464</t>
+          <t>t-681630649879543808</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,24 +9189,24 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-666809196977909760</t>
+          <t>t-822808230711721984</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-674974370180239360</t>
+          <t>t-536910791295778816</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" t="n">
         <v>1</v>
@@ -9215,24 +9215,24 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-697703131493355520</t>
+          <t>t-540747270207991808</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-698358832959873025</t>
+          <t>t-695999176518184960</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-817285829861093377</t>
+          <t>t-779194196724887553</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-544711019629907968</t>
+          <t>t-801652200724451332</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,20 +9267,20 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-544769671799394304</t>
+          <t>t-919895715089932288</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-544813894037147648</t>
+          <t>t-1060932314279170048</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-545169541052243968</t>
+          <t>t-692022677649797120</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-547033780322455552</t>
+          <t>t-930542567199997958</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-547601049230782464</t>
+          <t>t-597692277847298049</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-548131100095442945</t>
+          <t>t-796490215078711296</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,11 +9345,11 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-550823263941574657</t>
+          <t>t-984973285124222976</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686" t="n">
         <v>0</v>
@@ -9358,11 +9358,11 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-557096941750743040</t>
+          <t>t-993018034288705536</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -9371,33 +9371,33 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-734168300121395200</t>
+          <t>t-908138128514437120</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-816403303852425216</t>
+          <t>t-941530453147836416</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-562992622130954243</t>
+          <t>t-1037871134488707072</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-558414856756293634</t>
+          <t>t-1037879643695529985</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-558416982677422081</t>
+          <t>t-1037893136482103296</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,11 +9436,11 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-636337860757483520</t>
+          <t>t-1037997508973060096</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-737185619730780161</t>
+          <t>t-703883305427427329</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-820620984231174145</t>
+          <t>t-704164134657486848</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,20 +9475,20 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-859771332908777474</t>
+          <t>t-558523740888109056</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-965551093982769152</t>
+          <t>t-697434910303264773</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,24 +9501,24 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-966989390873378816</t>
+          <t>t-780018288940158976</t>
         </is>
       </c>
       <c r="B698" t="n">
         <v>1</v>
       </c>
       <c r="C698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-544020486527528960</t>
+          <t>t-781093621592383488</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-666482399069343745</t>
+          <t>t-832028212376985600</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-820399938416754688</t>
+          <t>t-832064333504933888</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-812248571802025984</t>
+          <t>t-839272244895309824</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,72 +9566,72 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-599804476774436864</t>
+          <t>t-940363500475465728</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-908138128514437120</t>
+          <t>t-895185499131961344</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-703883305427427329</t>
+          <t>t-1016952321333497856</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-704164134657486848</t>
+          <t>t-795497536291094528</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-941661763132579840</t>
+          <t>t-978443713629204480</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-558523740888109056</t>
+          <t>t-978559522900910080</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,11 +9644,11 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-658189046523412480</t>
+          <t>t-1004628011856089090</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -9657,11 +9657,11 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-808956641743732736</t>
+          <t>t-605944627380817920</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
         <v>1</v>
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-809733108471889920</t>
+          <t>t-642718104875732992</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-832028212376985600</t>
+          <t>t-718718501679017984</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-832064333504933888</t>
+          <t>t-729241413867556864</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-839272244895309824</t>
+          <t>t-819830340390830081</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,7 +9722,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-946271534502395905</t>
+          <t>t-845628167855357953</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,11 +9735,11 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-895185499131961344</t>
+          <t>t-935268837662052353</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" t="n">
         <v>1</v>
@@ -9748,37 +9748,37 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-936534965277294597</t>
+          <t>t-935313787321585664</t>
         </is>
       </c>
       <c r="B717" t="n">
         <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-936606274795462656</t>
+          <t>t-935539265307660289</t>
         </is>
       </c>
       <c r="B718" t="n">
         <v>1</v>
       </c>
       <c r="C718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-950566545595551745</t>
+          <t>t-935690311879282688</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
         <v>0</v>
@@ -9787,11 +9787,11 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-741496457824374784</t>
+          <t>t-936855089326604288</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" t="n">
         <v>0</v>
@@ -9800,37 +9800,37 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-775600763481436160</t>
+          <t>t-998772384076320768</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-795497536291094528</t>
+          <t>t-998825906733920257</t>
         </is>
       </c>
       <c r="B722" t="n">
         <v>0</v>
       </c>
       <c r="C722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-805321168580395008</t>
+          <t>t-572370799971053568</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C723" t="n">
         <v>1</v>
@@ -9839,11 +9839,11 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-870645957704265729</t>
+          <t>t-1016913242839367680</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C724" t="n">
         <v>1</v>
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-870651401311014912</t>
+          <t>t-640851401892065280</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-568062001399746560</t>
+          <t>t-792051379564969985</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-792051379564969985</t>
+          <t>t-675601382867537920</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,20 +9891,20 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-877794875583934464</t>
+          <t>t-676436379425894400</t>
         </is>
       </c>
       <c r="B728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-691264325659422721</t>
+          <t>t-820218394255339521</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,11 +9917,11 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-691280497184362497</t>
+          <t>t-732116489394851840</t>
         </is>
       </c>
       <c r="B730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C730" t="n">
         <v>1</v>
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-820218394255339521</t>
+          <t>t-732306842290946048</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-833912149630078976</t>
+          <t>t-816256005461987328</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -9956,7 +9956,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-940573035752386560</t>
+          <t>t-833891988315336704</t>
         </is>
       </c>
       <c r="B733" t="n">
